--- a/FavoriteNumbers.xlsx
+++ b/FavoriteNumbers.xlsx
@@ -8,30 +8,76 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D37E0F72-5248-4B84-B29A-A8A14139D70D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{BF66D7BC-C663-4D77-929C-31A196E1072D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
-    <sheet name="FavoriteNumbers" sheetId="1" r:id="rId1"/>
+    <sheet name="Histogram" sheetId="2" r:id="rId1"/>
+    <sheet name="FavoriteNumbers" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
+  <pivotCaches>
+    <pivotCache cacheId="3" r:id="rId3"/>
+  </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t xml:space="preserve">ID </t>
   </si>
   <si>
     <t xml:space="preserve"> Favorite Number </t>
   </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count of  Favorite Number </t>
+  </si>
+  <si>
+    <t>1-100</t>
+  </si>
+  <si>
+    <t>101-200</t>
+  </si>
+  <si>
+    <t>201-300</t>
+  </si>
+  <si>
+    <t>301-400</t>
+  </si>
+  <si>
+    <t>401-500</t>
+  </si>
+  <si>
+    <t>501-600</t>
+  </si>
+  <si>
+    <t>601-700</t>
+  </si>
+  <si>
+    <t>701-800</t>
+  </si>
+  <si>
+    <t>801-900</t>
+  </si>
+  <si>
+    <t>901-1000</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000%"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -509,8 +555,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -567,6 +618,5803 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[FavoriteNumbers.xlsx]Histogram!PivotTable1</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Histogram!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Histogram!$A$4:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1-100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>101-200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>201-300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>301-400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>401-500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>501-600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>601-700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>701-800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>801-900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>901-1000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Histogram!$B$4:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.000%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1018981018981019</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.8901098901098897E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.8901098901098897E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.10989010989010989</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1028971028971029</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.8901098901098897E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1008991008991009</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.2907092907092911E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.8901098901098897E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.5904095904095904E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B4CC-4835-BF3A-34F76FBDBA70}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="846591135"/>
+        <c:axId val="846189599"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="846591135"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="846189599"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="846189599"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="846591135"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8E01D28-5BFC-4347-BB9A-4E914A084DBC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Jack" refreshedDate="44607.024293402777" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="1001">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:B1002" sheet="FavoriteNumbers"/>
+  </cacheSource>
+  <cacheFields count="2">
+    <cacheField name="ID " numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="1000"/>
+    </cacheField>
+    <cacheField name=" Favorite Number " numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="1000" count="636">
+        <n v="879"/>
+        <n v="459"/>
+        <n v="959"/>
+        <n v="517"/>
+        <n v="912"/>
+        <n v="449"/>
+        <n v="298"/>
+        <n v="988"/>
+        <n v="201"/>
+        <n v="472"/>
+        <n v="506"/>
+        <n v="331"/>
+        <n v="276"/>
+        <n v="321"/>
+        <n v="609"/>
+        <n v="498"/>
+        <n v="893"/>
+        <n v="470"/>
+        <n v="47"/>
+        <n v="509"/>
+        <n v="354"/>
+        <n v="77"/>
+        <n v="979"/>
+        <n v="228"/>
+        <n v="232"/>
+        <n v="229"/>
+        <n v="189"/>
+        <n v="737"/>
+        <n v="272"/>
+        <n v="78"/>
+        <n v="852"/>
+        <n v="30"/>
+        <n v="856"/>
+        <n v="308"/>
+        <n v="5"/>
+        <n v="367"/>
+        <n v="416"/>
+        <n v="458"/>
+        <n v="196"/>
+        <n v="823"/>
+        <n v="501"/>
+        <n v="966"/>
+        <n v="59"/>
+        <n v="340"/>
+        <n v="307"/>
+        <n v="325"/>
+        <n v="457"/>
+        <n v="638"/>
+        <n v="769"/>
+        <n v="680"/>
+        <n v="437"/>
+        <n v="572"/>
+        <n v="442"/>
+        <n v="373"/>
+        <n v="49"/>
+        <n v="922"/>
+        <n v="820"/>
+        <n v="836"/>
+        <n v="355"/>
+        <n v="913"/>
+        <n v="591"/>
+        <n v="896"/>
+        <n v="1000"/>
+        <n v="595"/>
+        <n v="884"/>
+        <n v="738"/>
+        <n v="490"/>
+        <n v="117"/>
+        <n v="114"/>
+        <n v="359"/>
+        <n v="785"/>
+        <n v="68"/>
+        <n v="246"/>
+        <n v="923"/>
+        <n v="257"/>
+        <n v="188"/>
+        <n v="945"/>
+        <n v="270"/>
+        <n v="87"/>
+        <n v="807"/>
+        <n v="415"/>
+        <n v="597"/>
+        <n v="200"/>
+        <n v="919"/>
+        <n v="242"/>
+        <n v="974"/>
+        <n v="654"/>
+        <n v="586"/>
+        <n v="262"/>
+        <n v="145"/>
+        <n v="236"/>
+        <n v="226"/>
+        <n v="678"/>
+        <n v="252"/>
+        <n v="573"/>
+        <n v="952"/>
+        <n v="362"/>
+        <n v="502"/>
+        <n v="492"/>
+        <n v="346"/>
+        <n v="334"/>
+        <n v="603"/>
+        <n v="674"/>
+        <n v="183"/>
+        <n v="392"/>
+        <n v="917"/>
+        <n v="417"/>
+        <n v="368"/>
+        <n v="511"/>
+        <n v="171"/>
+        <n v="285"/>
+        <n v="149"/>
+        <n v="463"/>
+        <n v="824"/>
+        <n v="234"/>
+        <n v="665"/>
+        <n v="168"/>
+        <n v="523"/>
+        <n v="713"/>
+        <n v="860"/>
+        <n v="110"/>
+        <n v="767"/>
+        <n v="52"/>
+        <n v="451"/>
+        <n v="332"/>
+        <n v="46"/>
+        <n v="305"/>
+        <n v="365"/>
+        <n v="394"/>
+        <n v="351"/>
+        <n v="203"/>
+        <n v="420"/>
+        <n v="640"/>
+        <n v="715"/>
+        <n v="255"/>
+        <n v="861"/>
+        <n v="894"/>
+        <n v="112"/>
+        <n v="938"/>
+        <n v="888"/>
+        <n v="160"/>
+        <n v="942"/>
+        <n v="536"/>
+        <n v="67"/>
+        <n v="214"/>
+        <n v="529"/>
+        <n v="497"/>
+        <n v="526"/>
+        <n v="961"/>
+        <n v="57"/>
+        <n v="408"/>
+        <n v="382"/>
+        <n v="990"/>
+        <n v="789"/>
+        <n v="419"/>
+        <n v="999"/>
+        <n v="989"/>
+        <n v="96"/>
+        <n v="268"/>
+        <n v="606"/>
+        <n v="456"/>
+        <n v="461"/>
+        <n v="51"/>
+        <n v="471"/>
+        <n v="751"/>
+        <n v="949"/>
+        <n v="598"/>
+        <n v="476"/>
+        <n v="906"/>
+        <n v="898"/>
+        <n v="858"/>
+        <n v="374"/>
+        <n v="462"/>
+        <n v="297"/>
+        <n v="294"/>
+        <n v="514"/>
+        <n v="928"/>
+        <n v="106"/>
+        <n v="347"/>
+        <n v="19"/>
+        <n v="734"/>
+        <n v="512"/>
+        <n v="541"/>
+        <n v="671"/>
+        <n v="207"/>
+        <n v="951"/>
+        <n v="719"/>
+        <n v="660"/>
+        <n v="756"/>
+        <n v="900"/>
+        <n v="685"/>
+        <n v="615"/>
+        <n v="857"/>
+        <n v="602"/>
+        <n v="431"/>
+        <n v="720"/>
+        <n v="682"/>
+        <n v="804"/>
+        <n v="994"/>
+        <n v="920"/>
+        <n v="590"/>
+        <n v="208"/>
+        <n v="496"/>
+        <n v="691"/>
+        <n v="152"/>
+        <n v="791"/>
+        <n v="960"/>
+        <n v="291"/>
+        <n v="71"/>
+        <n v="484"/>
+        <n v="14"/>
+        <n v="239"/>
+        <n v="568"/>
+        <n v="755"/>
+        <n v="813"/>
+        <n v="714"/>
+        <n v="672"/>
+        <n v="75"/>
+        <n v="864"/>
+        <n v="664"/>
+        <n v="122"/>
+        <n v="329"/>
+        <n v="169"/>
+        <n v="669"/>
+        <n v="965"/>
+        <n v="327"/>
+        <n v="453"/>
+        <n v="729"/>
+        <n v="601"/>
+        <n v="44"/>
+        <n v="48"/>
+        <n v="357"/>
+        <n v="361"/>
+        <n v="784"/>
+        <n v="271"/>
+        <n v="121"/>
+        <n v="247"/>
+        <n v="712"/>
+        <n v="464"/>
+        <n v="300"/>
+        <n v="495"/>
+        <n v="993"/>
+        <n v="231"/>
+        <n v="783"/>
+        <n v="53"/>
+        <n v="604"/>
+        <n v="266"/>
+        <n v="339"/>
+        <n v="35"/>
+        <n v="516"/>
+        <n v="64"/>
+        <n v="366"/>
+        <n v="623"/>
+        <n v="153"/>
+        <n v="37"/>
+        <n v="673"/>
+        <n v="977"/>
+        <n v="358"/>
+        <n v="927"/>
+        <n v="74"/>
+        <n v="61"/>
+        <n v="558"/>
+        <n v="845"/>
+        <n v="370"/>
+        <n v="510"/>
+        <n v="12"/>
+        <n v="515"/>
+        <n v="60"/>
+        <n v="646"/>
+        <n v="667"/>
+        <n v="934"/>
+        <n v="391"/>
+        <n v="566"/>
+        <n v="399"/>
+        <n v="503"/>
+        <n v="2"/>
+        <n v="688"/>
+        <n v="963"/>
+        <n v="410"/>
+        <n v="545"/>
+        <n v="814"/>
+        <n v="574"/>
+        <n v="41"/>
+        <n v="344"/>
+        <n v="758"/>
+        <n v="705"/>
+        <n v="304"/>
+        <n v="915"/>
+        <n v="901"/>
+        <n v="956"/>
+        <n v="746"/>
+        <n v="701"/>
+        <n v="39"/>
+        <n v="302"/>
+        <n v="193"/>
+        <n v="656"/>
+        <n v="220"/>
+        <n v="721"/>
+        <n v="687"/>
+        <n v="1"/>
+        <n v="556"/>
+        <n v="882"/>
+        <n v="821"/>
+        <n v="616"/>
+        <n v="88"/>
+        <n v="725"/>
+        <n v="950"/>
+        <n v="315"/>
+        <n v="873"/>
+        <n v="42"/>
+        <n v="178"/>
+        <n v="480"/>
+        <n v="473"/>
+        <n v="479"/>
+        <n v="841"/>
+        <n v="167"/>
+        <n v="318"/>
+        <n v="863"/>
+        <n v="303"/>
+        <n v="732"/>
+        <n v="56"/>
+        <n v="528"/>
+        <n v="137"/>
+        <n v="759"/>
+        <n v="650"/>
+        <n v="733"/>
+        <n v="829"/>
+        <n v="211"/>
+        <n v="172"/>
+        <n v="781"/>
+        <n v="170"/>
+        <n v="589"/>
+        <n v="95"/>
+        <n v="628"/>
+        <n v="859"/>
+        <n v="941"/>
+        <n v="105"/>
+        <n v="398"/>
+        <n v="765"/>
+        <n v="570"/>
+        <n v="487"/>
+        <n v="844"/>
+        <n v="926"/>
+        <n v="241"/>
+        <n v="584"/>
+        <n v="278"/>
+        <n v="753"/>
+        <n v="197"/>
+        <n v="742"/>
+        <n v="962"/>
+        <n v="908"/>
+        <n v="27"/>
+        <n v="283"/>
+        <n v="8"/>
+        <n v="150"/>
+        <n v="475"/>
+        <n v="212"/>
+        <n v="158"/>
+        <n v="235"/>
+        <n v="809"/>
+        <n v="626"/>
+        <n v="134"/>
+        <n v="337"/>
+        <n v="696"/>
+        <n v="816"/>
+        <n v="333"/>
+        <n v="156"/>
+        <n v="890"/>
+        <n v="199"/>
+        <n v="438"/>
+        <n v="85"/>
+        <n v="147"/>
+        <n v="837"/>
+        <n v="677"/>
+        <n v="563"/>
+        <n v="795"/>
+        <n v="872"/>
+        <n v="806"/>
+        <n v="115"/>
+        <n v="409"/>
+        <n v="335"/>
+        <n v="161"/>
+        <n v="786"/>
+        <n v="104"/>
+        <n v="435"/>
+        <n v="69"/>
+        <n v="187"/>
+        <n v="744"/>
+        <n v="441"/>
+        <n v="904"/>
+        <n v="324"/>
+        <n v="799"/>
+        <n v="132"/>
+        <n v="269"/>
+        <n v="342"/>
+        <n v="878"/>
+        <n v="54"/>
+        <n v="777"/>
+        <n v="336"/>
+        <n v="924"/>
+        <n v="637"/>
+        <n v="968"/>
+        <n v="393"/>
+        <n v="870"/>
+        <n v="818"/>
+        <n v="996"/>
+        <n v="929"/>
+        <n v="728"/>
+        <n v="500"/>
+        <n v="788"/>
+        <n v="166"/>
+        <n v="176"/>
+        <n v="684"/>
+        <n v="424"/>
+        <n v="594"/>
+        <n v="718"/>
+        <n v="554"/>
+        <n v="9"/>
+        <n v="513"/>
+        <n v="686"/>
+        <n v="562"/>
+        <n v="610"/>
+        <n v="436"/>
+        <n v="15"/>
+        <n v="120"/>
+        <n v="460"/>
+        <n v="805"/>
+        <n v="670"/>
+        <n v="317"/>
+        <n v="754"/>
+        <n v="831"/>
+        <n v="293"/>
+        <n v="537"/>
+        <n v="326"/>
+        <n v="710"/>
+        <n v="400"/>
+        <n v="316"/>
+        <n v="745"/>
+        <n v="129"/>
+        <n v="62"/>
+        <n v="162"/>
+        <n v="263"/>
+        <n v="281"/>
+        <n v="611"/>
+        <n v="444"/>
+        <n v="102"/>
+        <n v="983"/>
+        <n v="652"/>
+        <n v="880"/>
+        <n v="299"/>
+        <n v="749"/>
+        <n v="82"/>
+        <n v="932"/>
+        <n v="493"/>
+        <n v="577"/>
+        <n v="397"/>
+        <n v="607"/>
+        <n v="709"/>
+        <n v="984"/>
+        <n v="217"/>
+        <n v="632"/>
+        <n v="184"/>
+        <n v="486"/>
+        <n v="869"/>
+        <n v="551"/>
+        <n v="722"/>
+        <n v="897"/>
+        <n v="164"/>
+        <n v="40"/>
+        <n v="605"/>
+        <n v="275"/>
+        <n v="403"/>
+        <n v="343"/>
+        <n v="986"/>
+        <n v="389"/>
+        <n v="750"/>
+        <n v="286"/>
+        <n v="787"/>
+        <n v="580"/>
+        <n v="452"/>
+        <n v="557"/>
+        <n v="254"/>
+        <n v="717"/>
+        <n v="740"/>
+        <n v="630"/>
+        <n v="157"/>
+        <n v="139"/>
+        <n v="780"/>
+        <n v="547"/>
+        <n v="360"/>
+        <n v="853"/>
+        <n v="191"/>
+        <n v="494"/>
+        <n v="92"/>
+        <n v="527"/>
+        <n v="124"/>
+        <n v="819"/>
+        <n v="296"/>
+        <n v="404"/>
+        <n v="899"/>
+        <n v="518"/>
+        <n v="131"/>
+        <n v="619"/>
+        <n v="111"/>
+        <n v="72"/>
+        <n v="608"/>
+        <n v="666"/>
+        <n v="227"/>
+        <n v="446"/>
+        <n v="627"/>
+        <n v="694"/>
+        <n v="353"/>
+        <n v="596"/>
+        <n v="192"/>
+        <n v="292"/>
+        <n v="491"/>
+        <n v="762"/>
+        <n v="248"/>
+        <n v="954"/>
+        <n v="155"/>
+        <n v="29"/>
+        <n v="700"/>
+        <n v="58"/>
+        <n v="653"/>
+        <n v="224"/>
+        <n v="100"/>
+        <n v="792"/>
+        <n v="970"/>
+        <n v="81"/>
+        <n v="612"/>
+        <n v="689"/>
+        <n v="550"/>
+        <n v="84"/>
+        <n v="7"/>
+        <n v="349"/>
+        <n v="127"/>
+        <n v="538"/>
+        <n v="521"/>
+        <n v="22"/>
+        <n v="159"/>
+        <n v="130"/>
+        <n v="287"/>
+        <n v="808"/>
+        <n v="190"/>
+        <n v="803"/>
+        <n v="108"/>
+        <n v="4"/>
+        <n v="3"/>
+        <n v="186"/>
+        <n v="877"/>
+        <n v="91"/>
+        <n v="144"/>
+        <n v="833"/>
+        <n v="390"/>
+        <n v="181"/>
+        <n v="277"/>
+        <n v="675"/>
+        <n v="94"/>
+        <n v="848"/>
+        <n v="871"/>
+        <n v="643"/>
+        <n v="384"/>
+        <n v="141"/>
+        <n v="636"/>
+        <n v="36"/>
+        <n v="50"/>
+        <n v="565"/>
+        <n v="16"/>
+        <n v="379"/>
+        <n v="405"/>
+        <n v="439"/>
+        <n v="947"/>
+        <n v="540"/>
+        <n v="233"/>
+        <n v="450"/>
+        <n v="978"/>
+        <n v="681"/>
+        <n v="707"/>
+        <n v="402"/>
+        <n v="891"/>
+        <n v="273"/>
+        <n v="447"/>
+        <n v="426"/>
+        <n v="86"/>
+        <n v="113"/>
+        <n v="33"/>
+        <n v="918"/>
+        <n v="489"/>
+        <n v="422"/>
+        <n v="352"/>
+        <n v="396"/>
+        <n v="817"/>
+        <n v="24"/>
+        <n v="251"/>
+        <n v="219"/>
+        <n v="179"/>
+        <n v="692"/>
+        <n v="793"/>
+        <n v="206"/>
+        <n v="743"/>
+        <n v="639"/>
+        <n v="264"/>
+        <n v="569"/>
+        <n v="964"/>
+        <n v="599"/>
+        <n v="790"/>
+        <n v="838"/>
+        <n v="505"/>
+        <n v="433"/>
+        <n v="195"/>
+        <n v="832"/>
+        <n v="747"/>
+        <n v="504"/>
+        <n v="323"/>
+        <n v="279"/>
+        <n v="31"/>
+        <n v="812"/>
+        <n v="855"/>
+        <n v="380"/>
+        <n v="468"/>
+        <n v="876"/>
+        <n v="921"/>
+        <n v="43"/>
+        <n v="661"/>
+        <n v="967"/>
+        <n v="467"/>
+        <n v="575"/>
+        <n v="775"/>
+        <n v="249"/>
+        <n v="937"/>
+        <n v="903"/>
+        <n v="215"/>
+        <n v="525"/>
+        <n v="309"/>
+        <n v="6"/>
+        <n v="649"/>
+      </sharedItems>
+      <fieldGroup base="1">
+        <rangePr startNum="1" endNum="1000" groupInterval="100"/>
+        <groupItems count="12">
+          <s v="&lt;1"/>
+          <s v="1-100"/>
+          <s v="101-200"/>
+          <s v="201-300"/>
+          <s v="301-400"/>
+          <s v="401-500"/>
+          <s v="501-600"/>
+          <s v="601-700"/>
+          <s v="701-800"/>
+          <s v="801-900"/>
+          <s v="901-1000"/>
+          <s v="&gt;1001"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="1001">
+  <r>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <n v="9"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <n v="10"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <n v="11"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <n v="12"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <n v="13"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <n v="15"/>
+    <x v="15"/>
+  </r>
+  <r>
+    <n v="16"/>
+    <x v="16"/>
+  </r>
+  <r>
+    <n v="17"/>
+    <x v="17"/>
+  </r>
+  <r>
+    <n v="18"/>
+    <x v="18"/>
+  </r>
+  <r>
+    <n v="19"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="20"/>
+    <x v="19"/>
+  </r>
+  <r>
+    <n v="21"/>
+    <x v="20"/>
+  </r>
+  <r>
+    <n v="22"/>
+    <x v="21"/>
+  </r>
+  <r>
+    <n v="23"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <n v="24"/>
+    <x v="22"/>
+  </r>
+  <r>
+    <n v="25"/>
+    <x v="23"/>
+  </r>
+  <r>
+    <n v="26"/>
+    <x v="24"/>
+  </r>
+  <r>
+    <n v="27"/>
+    <x v="25"/>
+  </r>
+  <r>
+    <n v="28"/>
+    <x v="26"/>
+  </r>
+  <r>
+    <n v="29"/>
+    <x v="27"/>
+  </r>
+  <r>
+    <n v="30"/>
+    <x v="28"/>
+  </r>
+  <r>
+    <n v="31"/>
+    <x v="29"/>
+  </r>
+  <r>
+    <n v="32"/>
+    <x v="30"/>
+  </r>
+  <r>
+    <n v="33"/>
+    <x v="31"/>
+  </r>
+  <r>
+    <n v="34"/>
+    <x v="32"/>
+  </r>
+  <r>
+    <n v="35"/>
+    <x v="33"/>
+  </r>
+  <r>
+    <n v="36"/>
+    <x v="34"/>
+  </r>
+  <r>
+    <n v="37"/>
+    <x v="35"/>
+  </r>
+  <r>
+    <n v="38"/>
+    <x v="36"/>
+  </r>
+  <r>
+    <n v="39"/>
+    <x v="37"/>
+  </r>
+  <r>
+    <n v="40"/>
+    <x v="38"/>
+  </r>
+  <r>
+    <n v="41"/>
+    <x v="39"/>
+  </r>
+  <r>
+    <n v="42"/>
+    <x v="40"/>
+  </r>
+  <r>
+    <n v="43"/>
+    <x v="41"/>
+  </r>
+  <r>
+    <n v="44"/>
+    <x v="42"/>
+  </r>
+  <r>
+    <n v="45"/>
+    <x v="43"/>
+  </r>
+  <r>
+    <n v="46"/>
+    <x v="44"/>
+  </r>
+  <r>
+    <n v="47"/>
+    <x v="45"/>
+  </r>
+  <r>
+    <n v="48"/>
+    <x v="46"/>
+  </r>
+  <r>
+    <n v="49"/>
+    <x v="47"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <x v="48"/>
+  </r>
+  <r>
+    <n v="51"/>
+    <x v="49"/>
+  </r>
+  <r>
+    <n v="52"/>
+    <x v="50"/>
+  </r>
+  <r>
+    <n v="53"/>
+    <x v="51"/>
+  </r>
+  <r>
+    <n v="54"/>
+    <x v="52"/>
+  </r>
+  <r>
+    <n v="55"/>
+    <x v="53"/>
+  </r>
+  <r>
+    <n v="56"/>
+    <x v="54"/>
+  </r>
+  <r>
+    <n v="57"/>
+    <x v="55"/>
+  </r>
+  <r>
+    <n v="58"/>
+    <x v="56"/>
+  </r>
+  <r>
+    <n v="59"/>
+    <x v="57"/>
+  </r>
+  <r>
+    <n v="60"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <n v="61"/>
+    <x v="58"/>
+  </r>
+  <r>
+    <n v="62"/>
+    <x v="59"/>
+  </r>
+  <r>
+    <n v="63"/>
+    <x v="60"/>
+  </r>
+  <r>
+    <n v="64"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <n v="65"/>
+    <x v="62"/>
+  </r>
+  <r>
+    <n v="66"/>
+    <x v="63"/>
+  </r>
+  <r>
+    <n v="67"/>
+    <x v="64"/>
+  </r>
+  <r>
+    <n v="68"/>
+    <x v="65"/>
+  </r>
+  <r>
+    <n v="69"/>
+    <x v="66"/>
+  </r>
+  <r>
+    <n v="70"/>
+    <x v="67"/>
+  </r>
+  <r>
+    <n v="71"/>
+    <x v="68"/>
+  </r>
+  <r>
+    <n v="72"/>
+    <x v="69"/>
+  </r>
+  <r>
+    <n v="73"/>
+    <x v="70"/>
+  </r>
+  <r>
+    <n v="74"/>
+    <x v="71"/>
+  </r>
+  <r>
+    <n v="75"/>
+    <x v="72"/>
+  </r>
+  <r>
+    <n v="76"/>
+    <x v="73"/>
+  </r>
+  <r>
+    <n v="77"/>
+    <x v="74"/>
+  </r>
+  <r>
+    <n v="78"/>
+    <x v="75"/>
+  </r>
+  <r>
+    <n v="79"/>
+    <x v="76"/>
+  </r>
+  <r>
+    <n v="80"/>
+    <x v="16"/>
+  </r>
+  <r>
+    <n v="81"/>
+    <x v="77"/>
+  </r>
+  <r>
+    <n v="82"/>
+    <x v="78"/>
+  </r>
+  <r>
+    <n v="83"/>
+    <x v="79"/>
+  </r>
+  <r>
+    <n v="84"/>
+    <x v="80"/>
+  </r>
+  <r>
+    <n v="85"/>
+    <x v="81"/>
+  </r>
+  <r>
+    <n v="86"/>
+    <x v="82"/>
+  </r>
+  <r>
+    <n v="87"/>
+    <x v="83"/>
+  </r>
+  <r>
+    <n v="88"/>
+    <x v="84"/>
+  </r>
+  <r>
+    <n v="89"/>
+    <x v="85"/>
+  </r>
+  <r>
+    <n v="90"/>
+    <x v="86"/>
+  </r>
+  <r>
+    <n v="91"/>
+    <x v="87"/>
+  </r>
+  <r>
+    <n v="92"/>
+    <x v="88"/>
+  </r>
+  <r>
+    <n v="93"/>
+    <x v="89"/>
+  </r>
+  <r>
+    <n v="94"/>
+    <x v="90"/>
+  </r>
+  <r>
+    <n v="95"/>
+    <x v="91"/>
+  </r>
+  <r>
+    <n v="96"/>
+    <x v="92"/>
+  </r>
+  <r>
+    <n v="97"/>
+    <x v="93"/>
+  </r>
+  <r>
+    <n v="98"/>
+    <x v="94"/>
+  </r>
+  <r>
+    <n v="99"/>
+    <x v="95"/>
+  </r>
+  <r>
+    <n v="100"/>
+    <x v="96"/>
+  </r>
+  <r>
+    <n v="101"/>
+    <x v="97"/>
+  </r>
+  <r>
+    <n v="102"/>
+    <x v="98"/>
+  </r>
+  <r>
+    <n v="103"/>
+    <x v="99"/>
+  </r>
+  <r>
+    <n v="104"/>
+    <x v="100"/>
+  </r>
+  <r>
+    <n v="105"/>
+    <x v="101"/>
+  </r>
+  <r>
+    <n v="106"/>
+    <x v="102"/>
+  </r>
+  <r>
+    <n v="107"/>
+    <x v="103"/>
+  </r>
+  <r>
+    <n v="108"/>
+    <x v="104"/>
+  </r>
+  <r>
+    <n v="109"/>
+    <x v="105"/>
+  </r>
+  <r>
+    <n v="110"/>
+    <x v="106"/>
+  </r>
+  <r>
+    <n v="111"/>
+    <x v="107"/>
+  </r>
+  <r>
+    <n v="112"/>
+    <x v="108"/>
+  </r>
+  <r>
+    <n v="113"/>
+    <x v="109"/>
+  </r>
+  <r>
+    <n v="114"/>
+    <x v="110"/>
+  </r>
+  <r>
+    <n v="115"/>
+    <x v="111"/>
+  </r>
+  <r>
+    <n v="116"/>
+    <x v="112"/>
+  </r>
+  <r>
+    <n v="117"/>
+    <x v="113"/>
+  </r>
+  <r>
+    <n v="118"/>
+    <x v="114"/>
+  </r>
+  <r>
+    <n v="119"/>
+    <x v="115"/>
+  </r>
+  <r>
+    <n v="120"/>
+    <x v="116"/>
+  </r>
+  <r>
+    <n v="121"/>
+    <x v="117"/>
+  </r>
+  <r>
+    <n v="122"/>
+    <x v="118"/>
+  </r>
+  <r>
+    <n v="123"/>
+    <x v="119"/>
+  </r>
+  <r>
+    <n v="124"/>
+    <x v="120"/>
+  </r>
+  <r>
+    <n v="125"/>
+    <x v="121"/>
+  </r>
+  <r>
+    <n v="126"/>
+    <x v="122"/>
+  </r>
+  <r>
+    <n v="127"/>
+    <x v="123"/>
+  </r>
+  <r>
+    <n v="128"/>
+    <x v="124"/>
+  </r>
+  <r>
+    <n v="129"/>
+    <x v="125"/>
+  </r>
+  <r>
+    <n v="130"/>
+    <x v="126"/>
+  </r>
+  <r>
+    <n v="131"/>
+    <x v="127"/>
+  </r>
+  <r>
+    <n v="132"/>
+    <x v="128"/>
+  </r>
+  <r>
+    <n v="133"/>
+    <x v="129"/>
+  </r>
+  <r>
+    <n v="134"/>
+    <x v="130"/>
+  </r>
+  <r>
+    <n v="135"/>
+    <x v="131"/>
+  </r>
+  <r>
+    <n v="136"/>
+    <x v="19"/>
+  </r>
+  <r>
+    <n v="137"/>
+    <x v="132"/>
+  </r>
+  <r>
+    <n v="138"/>
+    <x v="133"/>
+  </r>
+  <r>
+    <n v="139"/>
+    <x v="134"/>
+  </r>
+  <r>
+    <n v="140"/>
+    <x v="135"/>
+  </r>
+  <r>
+    <n v="141"/>
+    <x v="99"/>
+  </r>
+  <r>
+    <n v="142"/>
+    <x v="136"/>
+  </r>
+  <r>
+    <n v="143"/>
+    <x v="137"/>
+  </r>
+  <r>
+    <n v="144"/>
+    <x v="138"/>
+  </r>
+  <r>
+    <n v="145"/>
+    <x v="139"/>
+  </r>
+  <r>
+    <n v="146"/>
+    <x v="140"/>
+  </r>
+  <r>
+    <n v="147"/>
+    <x v="141"/>
+  </r>
+  <r>
+    <n v="148"/>
+    <x v="142"/>
+  </r>
+  <r>
+    <n v="149"/>
+    <x v="143"/>
+  </r>
+  <r>
+    <n v="150"/>
+    <x v="144"/>
+  </r>
+  <r>
+    <n v="151"/>
+    <x v="145"/>
+  </r>
+  <r>
+    <n v="152"/>
+    <x v="146"/>
+  </r>
+  <r>
+    <n v="153"/>
+    <x v="147"/>
+  </r>
+  <r>
+    <n v="154"/>
+    <x v="148"/>
+  </r>
+  <r>
+    <n v="155"/>
+    <x v="141"/>
+  </r>
+  <r>
+    <n v="156"/>
+    <x v="149"/>
+  </r>
+  <r>
+    <n v="157"/>
+    <x v="150"/>
+  </r>
+  <r>
+    <n v="158"/>
+    <x v="151"/>
+  </r>
+  <r>
+    <n v="159"/>
+    <x v="152"/>
+  </r>
+  <r>
+    <n v="160"/>
+    <x v="153"/>
+  </r>
+  <r>
+    <n v="161"/>
+    <x v="154"/>
+  </r>
+  <r>
+    <n v="162"/>
+    <x v="133"/>
+  </r>
+  <r>
+    <n v="163"/>
+    <x v="155"/>
+  </r>
+  <r>
+    <n v="164"/>
+    <x v="156"/>
+  </r>
+  <r>
+    <n v="165"/>
+    <x v="157"/>
+  </r>
+  <r>
+    <n v="166"/>
+    <x v="158"/>
+  </r>
+  <r>
+    <n v="167"/>
+    <x v="159"/>
+  </r>
+  <r>
+    <n v="168"/>
+    <x v="160"/>
+  </r>
+  <r>
+    <n v="169"/>
+    <x v="161"/>
+  </r>
+  <r>
+    <n v="170"/>
+    <x v="162"/>
+  </r>
+  <r>
+    <n v="171"/>
+    <x v="163"/>
+  </r>
+  <r>
+    <n v="172"/>
+    <x v="164"/>
+  </r>
+  <r>
+    <n v="173"/>
+    <x v="165"/>
+  </r>
+  <r>
+    <n v="174"/>
+    <x v="166"/>
+  </r>
+  <r>
+    <n v="175"/>
+    <x v="167"/>
+  </r>
+  <r>
+    <n v="176"/>
+    <x v="168"/>
+  </r>
+  <r>
+    <n v="177"/>
+    <x v="169"/>
+  </r>
+  <r>
+    <n v="178"/>
+    <x v="170"/>
+  </r>
+  <r>
+    <n v="179"/>
+    <x v="171"/>
+  </r>
+  <r>
+    <n v="180"/>
+    <x v="172"/>
+  </r>
+  <r>
+    <n v="181"/>
+    <x v="173"/>
+  </r>
+  <r>
+    <n v="182"/>
+    <x v="174"/>
+  </r>
+  <r>
+    <n v="183"/>
+    <x v="175"/>
+  </r>
+  <r>
+    <n v="184"/>
+    <x v="176"/>
+  </r>
+  <r>
+    <n v="185"/>
+    <x v="74"/>
+  </r>
+  <r>
+    <n v="186"/>
+    <x v="177"/>
+  </r>
+  <r>
+    <n v="187"/>
+    <x v="178"/>
+  </r>
+  <r>
+    <n v="188"/>
+    <x v="179"/>
+  </r>
+  <r>
+    <n v="189"/>
+    <x v="177"/>
+  </r>
+  <r>
+    <n v="190"/>
+    <x v="180"/>
+  </r>
+  <r>
+    <n v="191"/>
+    <x v="181"/>
+  </r>
+  <r>
+    <n v="192"/>
+    <x v="182"/>
+  </r>
+  <r>
+    <n v="193"/>
+    <x v="183"/>
+  </r>
+  <r>
+    <n v="194"/>
+    <x v="184"/>
+  </r>
+  <r>
+    <n v="195"/>
+    <x v="146"/>
+  </r>
+  <r>
+    <n v="196"/>
+    <x v="185"/>
+  </r>
+  <r>
+    <n v="197"/>
+    <x v="186"/>
+  </r>
+  <r>
+    <n v="198"/>
+    <x v="187"/>
+  </r>
+  <r>
+    <n v="199"/>
+    <x v="188"/>
+  </r>
+  <r>
+    <n v="200"/>
+    <x v="189"/>
+  </r>
+  <r>
+    <n v="201"/>
+    <x v="190"/>
+  </r>
+  <r>
+    <n v="202"/>
+    <x v="191"/>
+  </r>
+  <r>
+    <n v="203"/>
+    <x v="166"/>
+  </r>
+  <r>
+    <n v="204"/>
+    <x v="192"/>
+  </r>
+  <r>
+    <n v="205"/>
+    <x v="193"/>
+  </r>
+  <r>
+    <n v="206"/>
+    <x v="194"/>
+  </r>
+  <r>
+    <n v="207"/>
+    <x v="195"/>
+  </r>
+  <r>
+    <n v="208"/>
+    <x v="196"/>
+  </r>
+  <r>
+    <n v="209"/>
+    <x v="197"/>
+  </r>
+  <r>
+    <n v="210"/>
+    <x v="198"/>
+  </r>
+  <r>
+    <n v="211"/>
+    <x v="199"/>
+  </r>
+  <r>
+    <n v="212"/>
+    <x v="200"/>
+  </r>
+  <r>
+    <n v="213"/>
+    <x v="94"/>
+  </r>
+  <r>
+    <n v="214"/>
+    <x v="60"/>
+  </r>
+  <r>
+    <n v="215"/>
+    <x v="201"/>
+  </r>
+  <r>
+    <n v="216"/>
+    <x v="202"/>
+  </r>
+  <r>
+    <n v="217"/>
+    <x v="203"/>
+  </r>
+  <r>
+    <n v="218"/>
+    <x v="27"/>
+  </r>
+  <r>
+    <n v="219"/>
+    <x v="204"/>
+  </r>
+  <r>
+    <n v="220"/>
+    <x v="205"/>
+  </r>
+  <r>
+    <n v="221"/>
+    <x v="121"/>
+  </r>
+  <r>
+    <n v="222"/>
+    <x v="206"/>
+  </r>
+  <r>
+    <n v="223"/>
+    <x v="207"/>
+  </r>
+  <r>
+    <n v="224"/>
+    <x v="208"/>
+  </r>
+  <r>
+    <n v="225"/>
+    <x v="209"/>
+  </r>
+  <r>
+    <n v="226"/>
+    <x v="175"/>
+  </r>
+  <r>
+    <n v="227"/>
+    <x v="142"/>
+  </r>
+  <r>
+    <n v="228"/>
+    <x v="210"/>
+  </r>
+  <r>
+    <n v="229"/>
+    <x v="171"/>
+  </r>
+  <r>
+    <n v="230"/>
+    <x v="211"/>
+  </r>
+  <r>
+    <n v="231"/>
+    <x v="212"/>
+  </r>
+  <r>
+    <n v="232"/>
+    <x v="213"/>
+  </r>
+  <r>
+    <n v="233"/>
+    <x v="214"/>
+  </r>
+  <r>
+    <n v="234"/>
+    <x v="215"/>
+  </r>
+  <r>
+    <n v="235"/>
+    <x v="120"/>
+  </r>
+  <r>
+    <n v="236"/>
+    <x v="216"/>
+  </r>
+  <r>
+    <n v="237"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <n v="238"/>
+    <x v="217"/>
+  </r>
+  <r>
+    <n v="239"/>
+    <x v="218"/>
+  </r>
+  <r>
+    <n v="240"/>
+    <x v="219"/>
+  </r>
+  <r>
+    <n v="241"/>
+    <x v="220"/>
+  </r>
+  <r>
+    <n v="242"/>
+    <x v="221"/>
+  </r>
+  <r>
+    <n v="243"/>
+    <x v="222"/>
+  </r>
+  <r>
+    <n v="244"/>
+    <x v="123"/>
+  </r>
+  <r>
+    <n v="245"/>
+    <x v="223"/>
+  </r>
+  <r>
+    <n v="246"/>
+    <x v="224"/>
+  </r>
+  <r>
+    <n v="247"/>
+    <x v="176"/>
+  </r>
+  <r>
+    <n v="248"/>
+    <x v="225"/>
+  </r>
+  <r>
+    <n v="249"/>
+    <x v="226"/>
+  </r>
+  <r>
+    <n v="250"/>
+    <x v="227"/>
+  </r>
+  <r>
+    <n v="251"/>
+    <x v="28"/>
+  </r>
+  <r>
+    <n v="252"/>
+    <x v="228"/>
+  </r>
+  <r>
+    <n v="253"/>
+    <x v="229"/>
+  </r>
+  <r>
+    <n v="254"/>
+    <x v="230"/>
+  </r>
+  <r>
+    <n v="255"/>
+    <x v="231"/>
+  </r>
+  <r>
+    <n v="256"/>
+    <x v="232"/>
+  </r>
+  <r>
+    <n v="257"/>
+    <x v="233"/>
+  </r>
+  <r>
+    <n v="258"/>
+    <x v="234"/>
+  </r>
+  <r>
+    <n v="259"/>
+    <x v="233"/>
+  </r>
+  <r>
+    <n v="260"/>
+    <x v="203"/>
+  </r>
+  <r>
+    <n v="261"/>
+    <x v="130"/>
+  </r>
+  <r>
+    <n v="262"/>
+    <x v="235"/>
+  </r>
+  <r>
+    <n v="263"/>
+    <x v="236"/>
+  </r>
+  <r>
+    <n v="264"/>
+    <x v="177"/>
+  </r>
+  <r>
+    <n v="265"/>
+    <x v="237"/>
+  </r>
+  <r>
+    <n v="266"/>
+    <x v="238"/>
+  </r>
+  <r>
+    <n v="267"/>
+    <x v="239"/>
+  </r>
+  <r>
+    <n v="268"/>
+    <x v="240"/>
+  </r>
+  <r>
+    <n v="269"/>
+    <x v="241"/>
+  </r>
+  <r>
+    <n v="270"/>
+    <x v="242"/>
+  </r>
+  <r>
+    <n v="271"/>
+    <x v="199"/>
+  </r>
+  <r>
+    <n v="272"/>
+    <x v="243"/>
+  </r>
+  <r>
+    <n v="273"/>
+    <x v="70"/>
+  </r>
+  <r>
+    <n v="274"/>
+    <x v="244"/>
+  </r>
+  <r>
+    <n v="275"/>
+    <x v="245"/>
+  </r>
+  <r>
+    <n v="276"/>
+    <x v="246"/>
+  </r>
+  <r>
+    <n v="277"/>
+    <x v="247"/>
+  </r>
+  <r>
+    <n v="278"/>
+    <x v="248"/>
+  </r>
+  <r>
+    <n v="279"/>
+    <x v="249"/>
+  </r>
+  <r>
+    <n v="280"/>
+    <x v="250"/>
+  </r>
+  <r>
+    <n v="281"/>
+    <x v="251"/>
+  </r>
+  <r>
+    <n v="282"/>
+    <x v="252"/>
+  </r>
+  <r>
+    <n v="283"/>
+    <x v="253"/>
+  </r>
+  <r>
+    <n v="284"/>
+    <x v="141"/>
+  </r>
+  <r>
+    <n v="285"/>
+    <x v="254"/>
+  </r>
+  <r>
+    <n v="286"/>
+    <x v="255"/>
+  </r>
+  <r>
+    <n v="287"/>
+    <x v="256"/>
+  </r>
+  <r>
+    <n v="288"/>
+    <x v="257"/>
+  </r>
+  <r>
+    <n v="289"/>
+    <x v="258"/>
+  </r>
+  <r>
+    <n v="290"/>
+    <x v="259"/>
+  </r>
+  <r>
+    <n v="291"/>
+    <x v="38"/>
+  </r>
+  <r>
+    <n v="292"/>
+    <x v="260"/>
+  </r>
+  <r>
+    <n v="293"/>
+    <x v="132"/>
+  </r>
+  <r>
+    <n v="294"/>
+    <x v="94"/>
+  </r>
+  <r>
+    <n v="295"/>
+    <x v="261"/>
+  </r>
+  <r>
+    <n v="296"/>
+    <x v="262"/>
+  </r>
+  <r>
+    <n v="297"/>
+    <x v="263"/>
+  </r>
+  <r>
+    <n v="298"/>
+    <x v="264"/>
+  </r>
+  <r>
+    <n v="299"/>
+    <x v="265"/>
+  </r>
+  <r>
+    <n v="300"/>
+    <x v="266"/>
+  </r>
+  <r>
+    <n v="301"/>
+    <x v="267"/>
+  </r>
+  <r>
+    <n v="302"/>
+    <x v="268"/>
+  </r>
+  <r>
+    <n v="303"/>
+    <x v="105"/>
+  </r>
+  <r>
+    <n v="304"/>
+    <x v="269"/>
+  </r>
+  <r>
+    <n v="305"/>
+    <x v="267"/>
+  </r>
+  <r>
+    <n v="306"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <n v="307"/>
+    <x v="270"/>
+  </r>
+  <r>
+    <n v="308"/>
+    <x v="271"/>
+  </r>
+  <r>
+    <n v="309"/>
+    <x v="245"/>
+  </r>
+  <r>
+    <n v="310"/>
+    <x v="272"/>
+  </r>
+  <r>
+    <n v="311"/>
+    <x v="177"/>
+  </r>
+  <r>
+    <n v="312"/>
+    <x v="273"/>
+  </r>
+  <r>
+    <n v="313"/>
+    <x v="274"/>
+  </r>
+  <r>
+    <n v="314"/>
+    <x v="45"/>
+  </r>
+  <r>
+    <n v="315"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="316"/>
+    <x v="275"/>
+  </r>
+  <r>
+    <n v="317"/>
+    <x v="134"/>
+  </r>
+  <r>
+    <n v="318"/>
+    <x v="276"/>
+  </r>
+  <r>
+    <n v="319"/>
+    <x v="277"/>
+  </r>
+  <r>
+    <n v="320"/>
+    <x v="278"/>
+  </r>
+  <r>
+    <n v="321"/>
+    <x v="124"/>
+  </r>
+  <r>
+    <n v="322"/>
+    <x v="32"/>
+  </r>
+  <r>
+    <n v="323"/>
+    <x v="279"/>
+  </r>
+  <r>
+    <n v="324"/>
+    <x v="280"/>
+  </r>
+  <r>
+    <n v="325"/>
+    <x v="68"/>
+  </r>
+  <r>
+    <n v="326"/>
+    <x v="132"/>
+  </r>
+  <r>
+    <n v="327"/>
+    <x v="78"/>
+  </r>
+  <r>
+    <n v="328"/>
+    <x v="228"/>
+  </r>
+  <r>
+    <n v="329"/>
+    <x v="195"/>
+  </r>
+  <r>
+    <n v="330"/>
+    <x v="281"/>
+  </r>
+  <r>
+    <n v="331"/>
+    <x v="282"/>
+  </r>
+  <r>
+    <n v="332"/>
+    <x v="252"/>
+  </r>
+  <r>
+    <n v="333"/>
+    <x v="283"/>
+  </r>
+  <r>
+    <n v="334"/>
+    <x v="284"/>
+  </r>
+  <r>
+    <n v="335"/>
+    <x v="285"/>
+  </r>
+  <r>
+    <n v="336"/>
+    <x v="32"/>
+  </r>
+  <r>
+    <n v="337"/>
+    <x v="286"/>
+  </r>
+  <r>
+    <n v="338"/>
+    <x v="149"/>
+  </r>
+  <r>
+    <n v="339"/>
+    <x v="287"/>
+  </r>
+  <r>
+    <n v="340"/>
+    <x v="288"/>
+  </r>
+  <r>
+    <n v="341"/>
+    <x v="289"/>
+  </r>
+  <r>
+    <n v="342"/>
+    <x v="290"/>
+  </r>
+  <r>
+    <n v="343"/>
+    <x v="291"/>
+  </r>
+  <r>
+    <n v="344"/>
+    <x v="292"/>
+  </r>
+  <r>
+    <n v="345"/>
+    <x v="293"/>
+  </r>
+  <r>
+    <n v="346"/>
+    <x v="294"/>
+  </r>
+  <r>
+    <n v="347"/>
+    <x v="295"/>
+  </r>
+  <r>
+    <n v="348"/>
+    <x v="216"/>
+  </r>
+  <r>
+    <n v="349"/>
+    <x v="296"/>
+  </r>
+  <r>
+    <n v="350"/>
+    <x v="297"/>
+  </r>
+  <r>
+    <n v="351"/>
+    <x v="298"/>
+  </r>
+  <r>
+    <n v="352"/>
+    <x v="299"/>
+  </r>
+  <r>
+    <n v="353"/>
+    <x v="247"/>
+  </r>
+  <r>
+    <n v="354"/>
+    <x v="300"/>
+  </r>
+  <r>
+    <n v="355"/>
+    <x v="203"/>
+  </r>
+  <r>
+    <n v="356"/>
+    <x v="301"/>
+  </r>
+  <r>
+    <n v="357"/>
+    <x v="302"/>
+  </r>
+  <r>
+    <n v="358"/>
+    <x v="280"/>
+  </r>
+  <r>
+    <n v="359"/>
+    <x v="303"/>
+  </r>
+  <r>
+    <n v="360"/>
+    <x v="304"/>
+  </r>
+  <r>
+    <n v="361"/>
+    <x v="305"/>
+  </r>
+  <r>
+    <n v="362"/>
+    <x v="306"/>
+  </r>
+  <r>
+    <n v="363"/>
+    <x v="150"/>
+  </r>
+  <r>
+    <n v="364"/>
+    <x v="206"/>
+  </r>
+  <r>
+    <n v="365"/>
+    <x v="307"/>
+  </r>
+  <r>
+    <n v="366"/>
+    <x v="308"/>
+  </r>
+  <r>
+    <n v="367"/>
+    <x v="309"/>
+  </r>
+  <r>
+    <n v="368"/>
+    <x v="310"/>
+  </r>
+  <r>
+    <n v="369"/>
+    <x v="311"/>
+  </r>
+  <r>
+    <n v="370"/>
+    <x v="312"/>
+  </r>
+  <r>
+    <n v="371"/>
+    <x v="313"/>
+  </r>
+  <r>
+    <n v="372"/>
+    <x v="314"/>
+  </r>
+  <r>
+    <n v="373"/>
+    <x v="315"/>
+  </r>
+  <r>
+    <n v="374"/>
+    <x v="109"/>
+  </r>
+  <r>
+    <n v="375"/>
+    <x v="148"/>
+  </r>
+  <r>
+    <n v="376"/>
+    <x v="159"/>
+  </r>
+  <r>
+    <n v="377"/>
+    <x v="316"/>
+  </r>
+  <r>
+    <n v="378"/>
+    <x v="317"/>
+  </r>
+  <r>
+    <n v="379"/>
+    <x v="318"/>
+  </r>
+  <r>
+    <n v="380"/>
+    <x v="319"/>
+  </r>
+  <r>
+    <n v="381"/>
+    <x v="320"/>
+  </r>
+  <r>
+    <n v="382"/>
+    <x v="321"/>
+  </r>
+  <r>
+    <n v="383"/>
+    <x v="322"/>
+  </r>
+  <r>
+    <n v="384"/>
+    <x v="323"/>
+  </r>
+  <r>
+    <n v="385"/>
+    <x v="192"/>
+  </r>
+  <r>
+    <n v="386"/>
+    <x v="324"/>
+  </r>
+  <r>
+    <n v="387"/>
+    <x v="325"/>
+  </r>
+  <r>
+    <n v="388"/>
+    <x v="270"/>
+  </r>
+  <r>
+    <n v="389"/>
+    <x v="326"/>
+  </r>
+  <r>
+    <n v="390"/>
+    <x v="327"/>
+  </r>
+  <r>
+    <n v="391"/>
+    <x v="328"/>
+  </r>
+  <r>
+    <n v="392"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="393"/>
+    <x v="329"/>
+  </r>
+  <r>
+    <n v="394"/>
+    <x v="330"/>
+  </r>
+  <r>
+    <n v="395"/>
+    <x v="331"/>
+  </r>
+  <r>
+    <n v="396"/>
+    <x v="322"/>
+  </r>
+  <r>
+    <n v="397"/>
+    <x v="332"/>
+  </r>
+  <r>
+    <n v="398"/>
+    <x v="333"/>
+  </r>
+  <r>
+    <n v="399"/>
+    <x v="334"/>
+  </r>
+  <r>
+    <n v="400"/>
+    <x v="335"/>
+  </r>
+  <r>
+    <n v="401"/>
+    <x v="336"/>
+  </r>
+  <r>
+    <n v="402"/>
+    <x v="337"/>
+  </r>
+  <r>
+    <n v="403"/>
+    <x v="338"/>
+  </r>
+  <r>
+    <n v="404"/>
+    <x v="174"/>
+  </r>
+  <r>
+    <n v="405"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <n v="406"/>
+    <x v="53"/>
+  </r>
+  <r>
+    <n v="407"/>
+    <x v="339"/>
+  </r>
+  <r>
+    <n v="408"/>
+    <x v="340"/>
+  </r>
+  <r>
+    <n v="409"/>
+    <x v="341"/>
+  </r>
+  <r>
+    <n v="410"/>
+    <x v="256"/>
+  </r>
+  <r>
+    <n v="411"/>
+    <x v="342"/>
+  </r>
+  <r>
+    <n v="412"/>
+    <x v="124"/>
+  </r>
+  <r>
+    <n v="413"/>
+    <x v="343"/>
+  </r>
+  <r>
+    <n v="414"/>
+    <x v="344"/>
+  </r>
+  <r>
+    <n v="415"/>
+    <x v="345"/>
+  </r>
+  <r>
+    <n v="416"/>
+    <x v="24"/>
+  </r>
+  <r>
+    <n v="417"/>
+    <x v="346"/>
+  </r>
+  <r>
+    <n v="418"/>
+    <x v="92"/>
+  </r>
+  <r>
+    <n v="419"/>
+    <x v="300"/>
+  </r>
+  <r>
+    <n v="420"/>
+    <x v="347"/>
+  </r>
+  <r>
+    <n v="421"/>
+    <x v="348"/>
+  </r>
+  <r>
+    <n v="422"/>
+    <x v="349"/>
+  </r>
+  <r>
+    <n v="423"/>
+    <x v="121"/>
+  </r>
+  <r>
+    <n v="424"/>
+    <x v="117"/>
+  </r>
+  <r>
+    <n v="425"/>
+    <x v="262"/>
+  </r>
+  <r>
+    <n v="426"/>
+    <x v="350"/>
+  </r>
+  <r>
+    <n v="427"/>
+    <x v="351"/>
+  </r>
+  <r>
+    <n v="428"/>
+    <x v="236"/>
+  </r>
+  <r>
+    <n v="429"/>
+    <x v="126"/>
+  </r>
+  <r>
+    <n v="430"/>
+    <x v="352"/>
+  </r>
+  <r>
+    <n v="431"/>
+    <x v="49"/>
+  </r>
+  <r>
+    <n v="432"/>
+    <x v="338"/>
+  </r>
+  <r>
+    <n v="433"/>
+    <x v="210"/>
+  </r>
+  <r>
+    <n v="434"/>
+    <x v="287"/>
+  </r>
+  <r>
+    <n v="435"/>
+    <x v="198"/>
+  </r>
+  <r>
+    <n v="436"/>
+    <x v="353"/>
+  </r>
+  <r>
+    <n v="437"/>
+    <x v="354"/>
+  </r>
+  <r>
+    <n v="438"/>
+    <x v="355"/>
+  </r>
+  <r>
+    <n v="439"/>
+    <x v="356"/>
+  </r>
+  <r>
+    <n v="440"/>
+    <x v="357"/>
+  </r>
+  <r>
+    <n v="441"/>
+    <x v="358"/>
+  </r>
+  <r>
+    <n v="442"/>
+    <x v="21"/>
+  </r>
+  <r>
+    <n v="443"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <n v="444"/>
+    <x v="359"/>
+  </r>
+  <r>
+    <n v="445"/>
+    <x v="360"/>
+  </r>
+  <r>
+    <n v="446"/>
+    <x v="361"/>
+  </r>
+  <r>
+    <n v="447"/>
+    <x v="362"/>
+  </r>
+  <r>
+    <n v="448"/>
+    <x v="363"/>
+  </r>
+  <r>
+    <n v="449"/>
+    <x v="364"/>
+  </r>
+  <r>
+    <n v="450"/>
+    <x v="365"/>
+  </r>
+  <r>
+    <n v="451"/>
+    <x v="289"/>
+  </r>
+  <r>
+    <n v="452"/>
+    <x v="366"/>
+  </r>
+  <r>
+    <n v="453"/>
+    <x v="366"/>
+  </r>
+  <r>
+    <n v="454"/>
+    <x v="173"/>
+  </r>
+  <r>
+    <n v="455"/>
+    <x v="293"/>
+  </r>
+  <r>
+    <n v="456"/>
+    <x v="97"/>
+  </r>
+  <r>
+    <n v="457"/>
+    <x v="238"/>
+  </r>
+  <r>
+    <n v="458"/>
+    <x v="367"/>
+  </r>
+  <r>
+    <n v="459"/>
+    <x v="368"/>
+  </r>
+  <r>
+    <n v="460"/>
+    <x v="369"/>
+  </r>
+  <r>
+    <n v="461"/>
+    <x v="370"/>
+  </r>
+  <r>
+    <n v="462"/>
+    <x v="360"/>
+  </r>
+  <r>
+    <n v="463"/>
+    <x v="81"/>
+  </r>
+  <r>
+    <n v="464"/>
+    <x v="152"/>
+  </r>
+  <r>
+    <n v="465"/>
+    <x v="371"/>
+  </r>
+  <r>
+    <n v="466"/>
+    <x v="372"/>
+  </r>
+  <r>
+    <n v="467"/>
+    <x v="343"/>
+  </r>
+  <r>
+    <n v="468"/>
+    <x v="373"/>
+  </r>
+  <r>
+    <n v="469"/>
+    <x v="84"/>
+  </r>
+  <r>
+    <n v="470"/>
+    <x v="374"/>
+  </r>
+  <r>
+    <n v="471"/>
+    <x v="375"/>
+  </r>
+  <r>
+    <n v="472"/>
+    <x v="315"/>
+  </r>
+  <r>
+    <n v="473"/>
+    <x v="376"/>
+  </r>
+  <r>
+    <n v="474"/>
+    <x v="377"/>
+  </r>
+  <r>
+    <n v="475"/>
+    <x v="378"/>
+  </r>
+  <r>
+    <n v="476"/>
+    <x v="379"/>
+  </r>
+  <r>
+    <n v="477"/>
+    <x v="380"/>
+  </r>
+  <r>
+    <n v="478"/>
+    <x v="200"/>
+  </r>
+  <r>
+    <n v="479"/>
+    <x v="105"/>
+  </r>
+  <r>
+    <n v="480"/>
+    <x v="374"/>
+  </r>
+  <r>
+    <n v="481"/>
+    <x v="381"/>
+  </r>
+  <r>
+    <n v="482"/>
+    <x v="382"/>
+  </r>
+  <r>
+    <n v="483"/>
+    <x v="383"/>
+  </r>
+  <r>
+    <n v="484"/>
+    <x v="258"/>
+  </r>
+  <r>
+    <n v="485"/>
+    <x v="384"/>
+  </r>
+  <r>
+    <n v="486"/>
+    <x v="20"/>
+  </r>
+  <r>
+    <n v="487"/>
+    <x v="130"/>
+  </r>
+  <r>
+    <n v="488"/>
+    <x v="385"/>
+  </r>
+  <r>
+    <n v="489"/>
+    <x v="386"/>
+  </r>
+  <r>
+    <n v="490"/>
+    <x v="387"/>
+  </r>
+  <r>
+    <n v="491"/>
+    <x v="265"/>
+  </r>
+  <r>
+    <n v="492"/>
+    <x v="388"/>
+  </r>
+  <r>
+    <n v="493"/>
+    <x v="389"/>
+  </r>
+  <r>
+    <n v="494"/>
+    <x v="390"/>
+  </r>
+  <r>
+    <n v="495"/>
+    <x v="391"/>
+  </r>
+  <r>
+    <n v="496"/>
+    <x v="392"/>
+  </r>
+  <r>
+    <n v="497"/>
+    <x v="393"/>
+  </r>
+  <r>
+    <n v="498"/>
+    <x v="120"/>
+  </r>
+  <r>
+    <n v="499"/>
+    <x v="112"/>
+  </r>
+  <r>
+    <n v="500"/>
+    <x v="394"/>
+  </r>
+  <r>
+    <n v="501"/>
+    <x v="148"/>
+  </r>
+  <r>
+    <n v="502"/>
+    <x v="395"/>
+  </r>
+  <r>
+    <n v="503"/>
+    <x v="390"/>
+  </r>
+  <r>
+    <n v="504"/>
+    <x v="270"/>
+  </r>
+  <r>
+    <n v="505"/>
+    <x v="396"/>
+  </r>
+  <r>
+    <n v="506"/>
+    <x v="204"/>
+  </r>
+  <r>
+    <n v="507"/>
+    <x v="397"/>
+  </r>
+  <r>
+    <n v="508"/>
+    <x v="398"/>
+  </r>
+  <r>
+    <n v="509"/>
+    <x v="109"/>
+  </r>
+  <r>
+    <n v="510"/>
+    <x v="399"/>
+  </r>
+  <r>
+    <n v="511"/>
+    <x v="176"/>
+  </r>
+  <r>
+    <n v="512"/>
+    <x v="400"/>
+  </r>
+  <r>
+    <n v="513"/>
+    <x v="401"/>
+  </r>
+  <r>
+    <n v="514"/>
+    <x v="402"/>
+  </r>
+  <r>
+    <n v="515"/>
+    <x v="231"/>
+  </r>
+  <r>
+    <n v="516"/>
+    <x v="282"/>
+  </r>
+  <r>
+    <n v="517"/>
+    <x v="403"/>
+  </r>
+  <r>
+    <n v="518"/>
+    <x v="404"/>
+  </r>
+  <r>
+    <n v="519"/>
+    <x v="405"/>
+  </r>
+  <r>
+    <n v="520"/>
+    <x v="226"/>
+  </r>
+  <r>
+    <n v="521"/>
+    <x v="406"/>
+  </r>
+  <r>
+    <n v="522"/>
+    <x v="407"/>
+  </r>
+  <r>
+    <n v="523"/>
+    <x v="137"/>
+  </r>
+  <r>
+    <n v="524"/>
+    <x v="408"/>
+  </r>
+  <r>
+    <n v="525"/>
+    <x v="409"/>
+  </r>
+  <r>
+    <n v="526"/>
+    <x v="410"/>
+  </r>
+  <r>
+    <n v="527"/>
+    <x v="411"/>
+  </r>
+  <r>
+    <n v="528"/>
+    <x v="123"/>
+  </r>
+  <r>
+    <n v="529"/>
+    <x v="155"/>
+  </r>
+  <r>
+    <n v="530"/>
+    <x v="412"/>
+  </r>
+  <r>
+    <n v="531"/>
+    <x v="413"/>
+  </r>
+  <r>
+    <n v="532"/>
+    <x v="414"/>
+  </r>
+  <r>
+    <n v="533"/>
+    <x v="415"/>
+  </r>
+  <r>
+    <n v="534"/>
+    <x v="248"/>
+  </r>
+  <r>
+    <n v="535"/>
+    <x v="416"/>
+  </r>
+  <r>
+    <n v="536"/>
+    <x v="317"/>
+  </r>
+  <r>
+    <n v="537"/>
+    <x v="417"/>
+  </r>
+  <r>
+    <n v="538"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <n v="539"/>
+    <x v="83"/>
+  </r>
+  <r>
+    <n v="540"/>
+    <x v="418"/>
+  </r>
+  <r>
+    <n v="541"/>
+    <x v="101"/>
+  </r>
+  <r>
+    <n v="542"/>
+    <x v="23"/>
+  </r>
+  <r>
+    <n v="543"/>
+    <x v="419"/>
+  </r>
+  <r>
+    <n v="544"/>
+    <x v="420"/>
+  </r>
+  <r>
+    <n v="545"/>
+    <x v="421"/>
+  </r>
+  <r>
+    <n v="546"/>
+    <x v="163"/>
+  </r>
+  <r>
+    <n v="547"/>
+    <x v="394"/>
+  </r>
+  <r>
+    <n v="548"/>
+    <x v="316"/>
+  </r>
+  <r>
+    <n v="549"/>
+    <x v="207"/>
+  </r>
+  <r>
+    <n v="550"/>
+    <x v="197"/>
+  </r>
+  <r>
+    <n v="551"/>
+    <x v="422"/>
+  </r>
+  <r>
+    <n v="552"/>
+    <x v="132"/>
+  </r>
+  <r>
+    <n v="553"/>
+    <x v="423"/>
+  </r>
+  <r>
+    <n v="554"/>
+    <x v="424"/>
+  </r>
+  <r>
+    <n v="555"/>
+    <x v="425"/>
+  </r>
+  <r>
+    <n v="556"/>
+    <x v="289"/>
+  </r>
+  <r>
+    <n v="557"/>
+    <x v="426"/>
+  </r>
+  <r>
+    <n v="558"/>
+    <x v="43"/>
+  </r>
+  <r>
+    <n v="559"/>
+    <x v="427"/>
+  </r>
+  <r>
+    <n v="560"/>
+    <x v="252"/>
+  </r>
+  <r>
+    <n v="561"/>
+    <x v="428"/>
+  </r>
+  <r>
+    <n v="562"/>
+    <x v="275"/>
+  </r>
+  <r>
+    <n v="563"/>
+    <x v="112"/>
+  </r>
+  <r>
+    <n v="564"/>
+    <x v="429"/>
+  </r>
+  <r>
+    <n v="565"/>
+    <x v="430"/>
+  </r>
+  <r>
+    <n v="566"/>
+    <x v="431"/>
+  </r>
+  <r>
+    <n v="567"/>
+    <x v="432"/>
+  </r>
+  <r>
+    <n v="568"/>
+    <x v="433"/>
+  </r>
+  <r>
+    <n v="569"/>
+    <x v="434"/>
+  </r>
+  <r>
+    <n v="570"/>
+    <x v="146"/>
+  </r>
+  <r>
+    <n v="571"/>
+    <x v="435"/>
+  </r>
+  <r>
+    <n v="572"/>
+    <x v="379"/>
+  </r>
+  <r>
+    <n v="573"/>
+    <x v="436"/>
+  </r>
+  <r>
+    <n v="574"/>
+    <x v="437"/>
+  </r>
+  <r>
+    <n v="575"/>
+    <x v="438"/>
+  </r>
+  <r>
+    <n v="576"/>
+    <x v="439"/>
+  </r>
+  <r>
+    <n v="577"/>
+    <x v="440"/>
+  </r>
+  <r>
+    <n v="578"/>
+    <x v="441"/>
+  </r>
+  <r>
+    <n v="579"/>
+    <x v="442"/>
+  </r>
+  <r>
+    <n v="580"/>
+    <x v="443"/>
+  </r>
+  <r>
+    <n v="581"/>
+    <x v="444"/>
+  </r>
+  <r>
+    <n v="582"/>
+    <x v="445"/>
+  </r>
+  <r>
+    <n v="583"/>
+    <x v="446"/>
+  </r>
+  <r>
+    <n v="584"/>
+    <x v="447"/>
+  </r>
+  <r>
+    <n v="585"/>
+    <x v="448"/>
+  </r>
+  <r>
+    <n v="586"/>
+    <x v="449"/>
+  </r>
+  <r>
+    <n v="587"/>
+    <x v="313"/>
+  </r>
+  <r>
+    <n v="588"/>
+    <x v="450"/>
+  </r>
+  <r>
+    <n v="589"/>
+    <x v="192"/>
+  </r>
+  <r>
+    <n v="590"/>
+    <x v="451"/>
+  </r>
+  <r>
+    <n v="591"/>
+    <x v="23"/>
+  </r>
+  <r>
+    <n v="592"/>
+    <x v="452"/>
+  </r>
+  <r>
+    <n v="593"/>
+    <x v="93"/>
+  </r>
+  <r>
+    <n v="594"/>
+    <x v="453"/>
+  </r>
+  <r>
+    <n v="595"/>
+    <x v="454"/>
+  </r>
+  <r>
+    <n v="596"/>
+    <x v="455"/>
+  </r>
+  <r>
+    <n v="597"/>
+    <x v="316"/>
+  </r>
+  <r>
+    <n v="598"/>
+    <x v="456"/>
+  </r>
+  <r>
+    <n v="599"/>
+    <x v="457"/>
+  </r>
+  <r>
+    <n v="600"/>
+    <x v="78"/>
+  </r>
+  <r>
+    <n v="601"/>
+    <x v="458"/>
+  </r>
+  <r>
+    <n v="602"/>
+    <x v="194"/>
+  </r>
+  <r>
+    <n v="603"/>
+    <x v="459"/>
+  </r>
+  <r>
+    <n v="604"/>
+    <x v="98"/>
+  </r>
+  <r>
+    <n v="605"/>
+    <x v="460"/>
+  </r>
+  <r>
+    <n v="606"/>
+    <x v="461"/>
+  </r>
+  <r>
+    <n v="607"/>
+    <x v="151"/>
+  </r>
+  <r>
+    <n v="608"/>
+    <x v="462"/>
+  </r>
+  <r>
+    <n v="609"/>
+    <x v="262"/>
+  </r>
+  <r>
+    <n v="610"/>
+    <x v="463"/>
+  </r>
+  <r>
+    <n v="611"/>
+    <x v="160"/>
+  </r>
+  <r>
+    <n v="612"/>
+    <x v="267"/>
+  </r>
+  <r>
+    <n v="613"/>
+    <x v="464"/>
+  </r>
+  <r>
+    <n v="614"/>
+    <x v="465"/>
+  </r>
+  <r>
+    <n v="615"/>
+    <x v="466"/>
+  </r>
+  <r>
+    <n v="616"/>
+    <x v="467"/>
+  </r>
+  <r>
+    <n v="617"/>
+    <x v="468"/>
+  </r>
+  <r>
+    <n v="618"/>
+    <x v="469"/>
+  </r>
+  <r>
+    <n v="619"/>
+    <x v="470"/>
+  </r>
+  <r>
+    <n v="620"/>
+    <x v="414"/>
+  </r>
+  <r>
+    <n v="621"/>
+    <x v="154"/>
+  </r>
+  <r>
+    <n v="622"/>
+    <x v="471"/>
+  </r>
+  <r>
+    <n v="623"/>
+    <x v="361"/>
+  </r>
+  <r>
+    <n v="624"/>
+    <x v="472"/>
+  </r>
+  <r>
+    <n v="625"/>
+    <x v="258"/>
+  </r>
+  <r>
+    <n v="626"/>
+    <x v="157"/>
+  </r>
+  <r>
+    <n v="627"/>
+    <x v="473"/>
+  </r>
+  <r>
+    <n v="628"/>
+    <x v="474"/>
+  </r>
+  <r>
+    <n v="629"/>
+    <x v="448"/>
+  </r>
+  <r>
+    <n v="630"/>
+    <x v="475"/>
+  </r>
+  <r>
+    <n v="631"/>
+    <x v="339"/>
+  </r>
+  <r>
+    <n v="632"/>
+    <x v="476"/>
+  </r>
+  <r>
+    <n v="633"/>
+    <x v="477"/>
+  </r>
+  <r>
+    <n v="634"/>
+    <x v="361"/>
+  </r>
+  <r>
+    <n v="635"/>
+    <x v="291"/>
+  </r>
+  <r>
+    <n v="636"/>
+    <x v="478"/>
+  </r>
+  <r>
+    <n v="637"/>
+    <x v="479"/>
+  </r>
+  <r>
+    <n v="638"/>
+    <x v="480"/>
+  </r>
+  <r>
+    <n v="639"/>
+    <x v="15"/>
+  </r>
+  <r>
+    <n v="640"/>
+    <x v="341"/>
+  </r>
+  <r>
+    <n v="641"/>
+    <x v="481"/>
+  </r>
+  <r>
+    <n v="642"/>
+    <x v="482"/>
+  </r>
+  <r>
+    <n v="643"/>
+    <x v="317"/>
+  </r>
+  <r>
+    <n v="644"/>
+    <x v="483"/>
+  </r>
+  <r>
+    <n v="645"/>
+    <x v="484"/>
+  </r>
+  <r>
+    <n v="646"/>
+    <x v="485"/>
+  </r>
+  <r>
+    <n v="647"/>
+    <x v="427"/>
+  </r>
+  <r>
+    <n v="648"/>
+    <x v="486"/>
+  </r>
+  <r>
+    <n v="649"/>
+    <x v="487"/>
+  </r>
+  <r>
+    <n v="650"/>
+    <x v="488"/>
+  </r>
+  <r>
+    <n v="651"/>
+    <x v="111"/>
+  </r>
+  <r>
+    <n v="652"/>
+    <x v="489"/>
+  </r>
+  <r>
+    <n v="653"/>
+    <x v="293"/>
+  </r>
+  <r>
+    <n v="654"/>
+    <x v="490"/>
+  </r>
+  <r>
+    <n v="655"/>
+    <x v="233"/>
+  </r>
+  <r>
+    <n v="656"/>
+    <x v="263"/>
+  </r>
+  <r>
+    <n v="657"/>
+    <x v="375"/>
+  </r>
+  <r>
+    <n v="658"/>
+    <x v="491"/>
+  </r>
+  <r>
+    <n v="659"/>
+    <x v="469"/>
+  </r>
+  <r>
+    <n v="660"/>
+    <x v="166"/>
+  </r>
+  <r>
+    <n v="661"/>
+    <x v="442"/>
+  </r>
+  <r>
+    <n v="662"/>
+    <x v="492"/>
+  </r>
+  <r>
+    <n v="663"/>
+    <x v="493"/>
+  </r>
+  <r>
+    <n v="664"/>
+    <x v="494"/>
+  </r>
+  <r>
+    <n v="665"/>
+    <x v="495"/>
+  </r>
+  <r>
+    <n v="666"/>
+    <x v="496"/>
+  </r>
+  <r>
+    <n v="667"/>
+    <x v="297"/>
+  </r>
+  <r>
+    <n v="668"/>
+    <x v="497"/>
+  </r>
+  <r>
+    <n v="669"/>
+    <x v="56"/>
+  </r>
+  <r>
+    <n v="670"/>
+    <x v="57"/>
+  </r>
+  <r>
+    <n v="671"/>
+    <x v="237"/>
+  </r>
+  <r>
+    <n v="672"/>
+    <x v="25"/>
+  </r>
+  <r>
+    <n v="673"/>
+    <x v="362"/>
+  </r>
+  <r>
+    <n v="674"/>
+    <x v="498"/>
+  </r>
+  <r>
+    <n v="675"/>
+    <x v="499"/>
+  </r>
+  <r>
+    <n v="676"/>
+    <x v="36"/>
+  </r>
+  <r>
+    <n v="677"/>
+    <x v="500"/>
+  </r>
+  <r>
+    <n v="678"/>
+    <x v="501"/>
+  </r>
+  <r>
+    <n v="679"/>
+    <x v="502"/>
+  </r>
+  <r>
+    <n v="680"/>
+    <x v="503"/>
+  </r>
+  <r>
+    <n v="681"/>
+    <x v="108"/>
+  </r>
+  <r>
+    <n v="682"/>
+    <x v="504"/>
+  </r>
+  <r>
+    <n v="683"/>
+    <x v="321"/>
+  </r>
+  <r>
+    <n v="684"/>
+    <x v="84"/>
+  </r>
+  <r>
+    <n v="685"/>
+    <x v="505"/>
+  </r>
+  <r>
+    <n v="686"/>
+    <x v="404"/>
+  </r>
+  <r>
+    <n v="687"/>
+    <x v="186"/>
+  </r>
+  <r>
+    <n v="688"/>
+    <x v="506"/>
+  </r>
+  <r>
+    <n v="689"/>
+    <x v="507"/>
+  </r>
+  <r>
+    <n v="690"/>
+    <x v="445"/>
+  </r>
+  <r>
+    <n v="691"/>
+    <x v="163"/>
+  </r>
+  <r>
+    <n v="692"/>
+    <x v="224"/>
+  </r>
+  <r>
+    <n v="693"/>
+    <x v="508"/>
+  </r>
+  <r>
+    <n v="694"/>
+    <x v="509"/>
+  </r>
+  <r>
+    <n v="695"/>
+    <x v="461"/>
+  </r>
+  <r>
+    <n v="696"/>
+    <x v="510"/>
+  </r>
+  <r>
+    <n v="697"/>
+    <x v="313"/>
+  </r>
+  <r>
+    <n v="698"/>
+    <x v="48"/>
+  </r>
+  <r>
+    <n v="699"/>
+    <x v="511"/>
+  </r>
+  <r>
+    <n v="700"/>
+    <x v="138"/>
+  </r>
+  <r>
+    <n v="701"/>
+    <x v="512"/>
+  </r>
+  <r>
+    <n v="702"/>
+    <x v="513"/>
+  </r>
+  <r>
+    <n v="703"/>
+    <x v="514"/>
+  </r>
+  <r>
+    <n v="704"/>
+    <x v="457"/>
+  </r>
+  <r>
+    <n v="705"/>
+    <x v="355"/>
+  </r>
+  <r>
+    <n v="706"/>
+    <x v="305"/>
+  </r>
+  <r>
+    <n v="707"/>
+    <x v="176"/>
+  </r>
+  <r>
+    <n v="708"/>
+    <x v="248"/>
+  </r>
+  <r>
+    <n v="709"/>
+    <x v="515"/>
+  </r>
+  <r>
+    <n v="710"/>
+    <x v="292"/>
+  </r>
+  <r>
+    <n v="711"/>
+    <x v="55"/>
+  </r>
+  <r>
+    <n v="712"/>
+    <x v="516"/>
+  </r>
+  <r>
+    <n v="713"/>
+    <x v="100"/>
+  </r>
+  <r>
+    <n v="714"/>
+    <x v="517"/>
+  </r>
+  <r>
+    <n v="715"/>
+    <x v="518"/>
+  </r>
+  <r>
+    <n v="716"/>
+    <x v="33"/>
+  </r>
+  <r>
+    <n v="717"/>
+    <x v="519"/>
+  </r>
+  <r>
+    <n v="718"/>
+    <x v="83"/>
+  </r>
+  <r>
+    <n v="719"/>
+    <x v="520"/>
+  </r>
+  <r>
+    <n v="720"/>
+    <x v="213"/>
+  </r>
+  <r>
+    <n v="721"/>
+    <x v="521"/>
+  </r>
+  <r>
+    <n v="722"/>
+    <x v="522"/>
+  </r>
+  <r>
+    <n v="723"/>
+    <x v="187"/>
+  </r>
+  <r>
+    <n v="724"/>
+    <x v="523"/>
+  </r>
+  <r>
+    <n v="725"/>
+    <x v="297"/>
+  </r>
+  <r>
+    <n v="726"/>
+    <x v="160"/>
+  </r>
+  <r>
+    <n v="727"/>
+    <x v="344"/>
+  </r>
+  <r>
+    <n v="728"/>
+    <x v="524"/>
+  </r>
+  <r>
+    <n v="729"/>
+    <x v="136"/>
+  </r>
+  <r>
+    <n v="730"/>
+    <x v="525"/>
+  </r>
+  <r>
+    <n v="731"/>
+    <x v="526"/>
+  </r>
+  <r>
+    <n v="732"/>
+    <x v="500"/>
+  </r>
+  <r>
+    <n v="733"/>
+    <x v="364"/>
+  </r>
+  <r>
+    <n v="734"/>
+    <x v="284"/>
+  </r>
+  <r>
+    <n v="735"/>
+    <x v="527"/>
+  </r>
+  <r>
+    <n v="736"/>
+    <x v="528"/>
+  </r>
+  <r>
+    <n v="737"/>
+    <x v="283"/>
+  </r>
+  <r>
+    <n v="738"/>
+    <x v="529"/>
+  </r>
+  <r>
+    <n v="739"/>
+    <x v="20"/>
+  </r>
+  <r>
+    <n v="740"/>
+    <x v="360"/>
+  </r>
+  <r>
+    <n v="741"/>
+    <x v="530"/>
+  </r>
+  <r>
+    <n v="742"/>
+    <x v="531"/>
+  </r>
+  <r>
+    <n v="743"/>
+    <x v="106"/>
+  </r>
+  <r>
+    <n v="744"/>
+    <x v="37"/>
+  </r>
+  <r>
+    <n v="745"/>
+    <x v="532"/>
+  </r>
+  <r>
+    <n v="746"/>
+    <x v="533"/>
+  </r>
+  <r>
+    <n v="747"/>
+    <x v="98"/>
+  </r>
+  <r>
+    <n v="748"/>
+    <x v="319"/>
+  </r>
+  <r>
+    <n v="749"/>
+    <x v="534"/>
+  </r>
+  <r>
+    <n v="750"/>
+    <x v="535"/>
+  </r>
+  <r>
+    <n v="751"/>
+    <x v="201"/>
+  </r>
+  <r>
+    <n v="752"/>
+    <x v="536"/>
+  </r>
+  <r>
+    <n v="753"/>
+    <x v="537"/>
+  </r>
+  <r>
+    <n v="754"/>
+    <x v="538"/>
+  </r>
+  <r>
+    <n v="755"/>
+    <x v="539"/>
+  </r>
+  <r>
+    <n v="756"/>
+    <x v="269"/>
+  </r>
+  <r>
+    <n v="757"/>
+    <x v="88"/>
+  </r>
+  <r>
+    <n v="758"/>
+    <x v="540"/>
+  </r>
+  <r>
+    <n v="759"/>
+    <x v="20"/>
+  </r>
+  <r>
+    <n v="760"/>
+    <x v="541"/>
+  </r>
+  <r>
+    <n v="761"/>
+    <x v="542"/>
+  </r>
+  <r>
+    <n v="762"/>
+    <x v="173"/>
+  </r>
+  <r>
+    <n v="763"/>
+    <x v="412"/>
+  </r>
+  <r>
+    <n v="764"/>
+    <x v="530"/>
+  </r>
+  <r>
+    <n v="765"/>
+    <x v="119"/>
+  </r>
+  <r>
+    <n v="766"/>
+    <x v="420"/>
+  </r>
+  <r>
+    <n v="767"/>
+    <x v="543"/>
+  </r>
+  <r>
+    <n v="768"/>
+    <x v="544"/>
+  </r>
+  <r>
+    <n v="769"/>
+    <x v="96"/>
+  </r>
+  <r>
+    <n v="770"/>
+    <x v="29"/>
+  </r>
+  <r>
+    <n v="771"/>
+    <x v="545"/>
+  </r>
+  <r>
+    <n v="772"/>
+    <x v="363"/>
+  </r>
+  <r>
+    <n v="773"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <n v="774"/>
+    <x v="546"/>
+  </r>
+  <r>
+    <n v="775"/>
+    <x v="547"/>
+  </r>
+  <r>
+    <n v="776"/>
+    <x v="548"/>
+  </r>
+  <r>
+    <n v="777"/>
+    <x v="549"/>
+  </r>
+  <r>
+    <n v="778"/>
+    <x v="367"/>
+  </r>
+  <r>
+    <n v="779"/>
+    <x v="223"/>
+  </r>
+  <r>
+    <n v="780"/>
+    <x v="550"/>
+  </r>
+  <r>
+    <n v="781"/>
+    <x v="116"/>
+  </r>
+  <r>
+    <n v="782"/>
+    <x v="551"/>
+  </r>
+  <r>
+    <n v="783"/>
+    <x v="269"/>
+  </r>
+  <r>
+    <n v="784"/>
+    <x v="552"/>
+  </r>
+  <r>
+    <n v="785"/>
+    <x v="427"/>
+  </r>
+  <r>
+    <n v="786"/>
+    <x v="553"/>
+  </r>
+  <r>
+    <n v="787"/>
+    <x v="554"/>
+  </r>
+  <r>
+    <n v="788"/>
+    <x v="351"/>
+  </r>
+  <r>
+    <n v="789"/>
+    <x v="101"/>
+  </r>
+  <r>
+    <n v="790"/>
+    <x v="555"/>
+  </r>
+  <r>
+    <n v="791"/>
+    <x v="388"/>
+  </r>
+  <r>
+    <n v="792"/>
+    <x v="95"/>
+  </r>
+  <r>
+    <n v="793"/>
+    <x v="337"/>
+  </r>
+  <r>
+    <n v="794"/>
+    <x v="556"/>
+  </r>
+  <r>
+    <n v="795"/>
+    <x v="557"/>
+  </r>
+  <r>
+    <n v="796"/>
+    <x v="491"/>
+  </r>
+  <r>
+    <n v="797"/>
+    <x v="477"/>
+  </r>
+  <r>
+    <n v="798"/>
+    <x v="387"/>
+  </r>
+  <r>
+    <n v="799"/>
+    <x v="514"/>
+  </r>
+  <r>
+    <n v="800"/>
+    <x v="558"/>
+  </r>
+  <r>
+    <n v="801"/>
+    <x v="559"/>
+  </r>
+  <r>
+    <n v="802"/>
+    <x v="434"/>
+  </r>
+  <r>
+    <n v="803"/>
+    <x v="560"/>
+  </r>
+  <r>
+    <n v="804"/>
+    <x v="339"/>
+  </r>
+  <r>
+    <n v="805"/>
+    <x v="561"/>
+  </r>
+  <r>
+    <n v="806"/>
+    <x v="562"/>
+  </r>
+  <r>
+    <n v="807"/>
+    <x v="563"/>
+  </r>
+  <r>
+    <n v="808"/>
+    <x v="553"/>
+  </r>
+  <r>
+    <n v="809"/>
+    <x v="369"/>
+  </r>
+  <r>
+    <n v="810"/>
+    <x v="300"/>
+  </r>
+  <r>
+    <n v="811"/>
+    <x v="121"/>
+  </r>
+  <r>
+    <n v="812"/>
+    <x v="504"/>
+  </r>
+  <r>
+    <n v="813"/>
+    <x v="299"/>
+  </r>
+  <r>
+    <n v="814"/>
+    <x v="564"/>
+  </r>
+  <r>
+    <n v="815"/>
+    <x v="565"/>
+  </r>
+  <r>
+    <n v="816"/>
+    <x v="566"/>
+  </r>
+  <r>
+    <n v="817"/>
+    <x v="567"/>
+  </r>
+  <r>
+    <n v="818"/>
+    <x v="261"/>
+  </r>
+  <r>
+    <n v="819"/>
+    <x v="84"/>
+  </r>
+  <r>
+    <n v="820"/>
+    <x v="142"/>
+  </r>
+  <r>
+    <n v="821"/>
+    <x v="568"/>
+  </r>
+  <r>
+    <n v="822"/>
+    <x v="569"/>
+  </r>
+  <r>
+    <n v="823"/>
+    <x v="232"/>
+  </r>
+  <r>
+    <n v="824"/>
+    <x v="570"/>
+  </r>
+  <r>
+    <n v="825"/>
+    <x v="17"/>
+  </r>
+  <r>
+    <n v="826"/>
+    <x v="125"/>
+  </r>
+  <r>
+    <n v="827"/>
+    <x v="480"/>
+  </r>
+  <r>
+    <n v="828"/>
+    <x v="355"/>
+  </r>
+  <r>
+    <n v="829"/>
+    <x v="571"/>
+  </r>
+  <r>
+    <n v="830"/>
+    <x v="572"/>
+  </r>
+  <r>
+    <n v="831"/>
+    <x v="573"/>
+  </r>
+  <r>
+    <n v="832"/>
+    <x v="105"/>
+  </r>
+  <r>
+    <n v="833"/>
+    <x v="42"/>
+  </r>
+  <r>
+    <n v="834"/>
+    <x v="36"/>
+  </r>
+  <r>
+    <n v="835"/>
+    <x v="574"/>
+  </r>
+  <r>
+    <n v="836"/>
+    <x v="352"/>
+  </r>
+  <r>
+    <n v="837"/>
+    <x v="212"/>
+  </r>
+  <r>
+    <n v="838"/>
+    <x v="244"/>
+  </r>
+  <r>
+    <n v="839"/>
+    <x v="113"/>
+  </r>
+  <r>
+    <n v="840"/>
+    <x v="359"/>
+  </r>
+  <r>
+    <n v="841"/>
+    <x v="575"/>
+  </r>
+  <r>
+    <n v="842"/>
+    <x v="511"/>
+  </r>
+  <r>
+    <n v="843"/>
+    <x v="211"/>
+  </r>
+  <r>
+    <n v="844"/>
+    <x v="457"/>
+  </r>
+  <r>
+    <n v="845"/>
+    <x v="189"/>
+  </r>
+  <r>
+    <n v="846"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <n v="847"/>
+    <x v="576"/>
+  </r>
+  <r>
+    <n v="848"/>
+    <x v="577"/>
+  </r>
+  <r>
+    <n v="849"/>
+    <x v="578"/>
+  </r>
+  <r>
+    <n v="850"/>
+    <x v="579"/>
+  </r>
+  <r>
+    <n v="851"/>
+    <x v="580"/>
+  </r>
+  <r>
+    <n v="852"/>
+    <x v="581"/>
+  </r>
+  <r>
+    <n v="853"/>
+    <x v="582"/>
+  </r>
+  <r>
+    <n v="854"/>
+    <x v="583"/>
+  </r>
+  <r>
+    <n v="855"/>
+    <x v="240"/>
+  </r>
+  <r>
+    <n v="856"/>
+    <x v="584"/>
+  </r>
+  <r>
+    <n v="857"/>
+    <x v="529"/>
+  </r>
+  <r>
+    <n v="858"/>
+    <x v="211"/>
+  </r>
+  <r>
+    <n v="859"/>
+    <x v="213"/>
+  </r>
+  <r>
+    <n v="860"/>
+    <x v="585"/>
+  </r>
+  <r>
+    <n v="861"/>
+    <x v="586"/>
+  </r>
+  <r>
+    <n v="862"/>
+    <x v="587"/>
+  </r>
+  <r>
+    <n v="863"/>
+    <x v="524"/>
+  </r>
+  <r>
+    <n v="864"/>
+    <x v="409"/>
+  </r>
+  <r>
+    <n v="865"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <n v="866"/>
+    <x v="461"/>
+  </r>
+  <r>
+    <n v="867"/>
+    <x v="272"/>
+  </r>
+  <r>
+    <n v="868"/>
+    <x v="448"/>
+  </r>
+  <r>
+    <n v="869"/>
+    <x v="578"/>
+  </r>
+  <r>
+    <n v="870"/>
+    <x v="559"/>
+  </r>
+  <r>
+    <n v="871"/>
+    <x v="544"/>
+  </r>
+  <r>
+    <n v="872"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <n v="873"/>
+    <x v="264"/>
+  </r>
+  <r>
+    <n v="874"/>
+    <x v="72"/>
+  </r>
+  <r>
+    <n v="875"/>
+    <x v="513"/>
+  </r>
+  <r>
+    <n v="876"/>
+    <x v="588"/>
+  </r>
+  <r>
+    <n v="877"/>
+    <x v="370"/>
+  </r>
+  <r>
+    <n v="878"/>
+    <x v="589"/>
+  </r>
+  <r>
+    <n v="879"/>
+    <x v="590"/>
+  </r>
+  <r>
+    <n v="880"/>
+    <x v="50"/>
+  </r>
+  <r>
+    <n v="881"/>
+    <x v="591"/>
+  </r>
+  <r>
+    <n v="882"/>
+    <x v="592"/>
+  </r>
+  <r>
+    <n v="883"/>
+    <x v="292"/>
+  </r>
+  <r>
+    <n v="884"/>
+    <x v="593"/>
+  </r>
+  <r>
+    <n v="885"/>
+    <x v="594"/>
+  </r>
+  <r>
+    <n v="886"/>
+    <x v="477"/>
+  </r>
+  <r>
+    <n v="887"/>
+    <x v="153"/>
+  </r>
+  <r>
+    <n v="888"/>
+    <x v="199"/>
+  </r>
+  <r>
+    <n v="889"/>
+    <x v="114"/>
+  </r>
+  <r>
+    <n v="890"/>
+    <x v="320"/>
+  </r>
+  <r>
+    <n v="891"/>
+    <x v="94"/>
+  </r>
+  <r>
+    <n v="892"/>
+    <x v="186"/>
+  </r>
+  <r>
+    <n v="893"/>
+    <x v="309"/>
+  </r>
+  <r>
+    <n v="894"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <n v="895"/>
+    <x v="30"/>
+  </r>
+  <r>
+    <n v="896"/>
+    <x v="507"/>
+  </r>
+  <r>
+    <n v="897"/>
+    <x v="127"/>
+  </r>
+  <r>
+    <n v="898"/>
+    <x v="509"/>
+  </r>
+  <r>
+    <n v="899"/>
+    <x v="595"/>
+  </r>
+  <r>
+    <n v="900"/>
+    <x v="596"/>
+  </r>
+  <r>
+    <n v="901"/>
+    <x v="458"/>
+  </r>
+  <r>
+    <n v="902"/>
+    <x v="597"/>
+  </r>
+  <r>
+    <n v="903"/>
+    <x v="220"/>
+  </r>
+  <r>
+    <n v="904"/>
+    <x v="322"/>
+  </r>
+  <r>
+    <n v="905"/>
+    <x v="231"/>
+  </r>
+  <r>
+    <n v="906"/>
+    <x v="598"/>
+  </r>
+  <r>
+    <n v="907"/>
+    <x v="391"/>
+  </r>
+  <r>
+    <n v="908"/>
+    <x v="204"/>
+  </r>
+  <r>
+    <n v="909"/>
+    <x v="62"/>
+  </r>
+  <r>
+    <n v="910"/>
+    <x v="599"/>
+  </r>
+  <r>
+    <n v="911"/>
+    <x v="600"/>
+  </r>
+  <r>
+    <n v="912"/>
+    <x v="126"/>
+  </r>
+  <r>
+    <n v="913"/>
+    <x v="601"/>
+  </r>
+  <r>
+    <n v="914"/>
+    <x v="602"/>
+  </r>
+  <r>
+    <n v="915"/>
+    <x v="218"/>
+  </r>
+  <r>
+    <n v="916"/>
+    <x v="505"/>
+  </r>
+  <r>
+    <n v="917"/>
+    <x v="603"/>
+  </r>
+  <r>
+    <n v="918"/>
+    <x v="126"/>
+  </r>
+  <r>
+    <n v="919"/>
+    <x v="466"/>
+  </r>
+  <r>
+    <n v="920"/>
+    <x v="54"/>
+  </r>
+  <r>
+    <n v="921"/>
+    <x v="604"/>
+  </r>
+  <r>
+    <n v="922"/>
+    <x v="298"/>
+  </r>
+  <r>
+    <n v="923"/>
+    <x v="605"/>
+  </r>
+  <r>
+    <n v="924"/>
+    <x v="606"/>
+  </r>
+  <r>
+    <n v="925"/>
+    <x v="607"/>
+  </r>
+  <r>
+    <n v="926"/>
+    <x v="608"/>
+  </r>
+  <r>
+    <n v="927"/>
+    <x v="609"/>
+  </r>
+  <r>
+    <n v="928"/>
+    <x v="529"/>
+  </r>
+  <r>
+    <n v="929"/>
+    <x v="390"/>
+  </r>
+  <r>
+    <n v="930"/>
+    <x v="447"/>
+  </r>
+  <r>
+    <n v="931"/>
+    <x v="514"/>
+  </r>
+  <r>
+    <n v="932"/>
+    <x v="57"/>
+  </r>
+  <r>
+    <n v="933"/>
+    <x v="610"/>
+  </r>
+  <r>
+    <n v="934"/>
+    <x v="21"/>
+  </r>
+  <r>
+    <n v="935"/>
+    <x v="107"/>
+  </r>
+  <r>
+    <n v="936"/>
+    <x v="182"/>
+  </r>
+  <r>
+    <n v="937"/>
+    <x v="611"/>
+  </r>
+  <r>
+    <n v="938"/>
+    <x v="490"/>
+  </r>
+  <r>
+    <n v="939"/>
+    <x v="612"/>
+  </r>
+  <r>
+    <n v="940"/>
+    <x v="97"/>
+  </r>
+  <r>
+    <n v="941"/>
+    <x v="322"/>
+  </r>
+  <r>
+    <n v="942"/>
+    <x v="613"/>
+  </r>
+  <r>
+    <n v="943"/>
+    <x v="614"/>
+  </r>
+  <r>
+    <n v="944"/>
+    <x v="279"/>
+  </r>
+  <r>
+    <n v="945"/>
+    <x v="358"/>
+  </r>
+  <r>
+    <n v="946"/>
+    <x v="203"/>
+  </r>
+  <r>
+    <n v="947"/>
+    <x v="615"/>
+  </r>
+  <r>
+    <n v="948"/>
+    <x v="616"/>
+  </r>
+  <r>
+    <n v="949"/>
+    <x v="617"/>
+  </r>
+  <r>
+    <n v="950"/>
+    <x v="618"/>
+  </r>
+  <r>
+    <n v="951"/>
+    <x v="562"/>
+  </r>
+  <r>
+    <n v="952"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <n v="953"/>
+    <x v="93"/>
+  </r>
+  <r>
+    <n v="954"/>
+    <x v="389"/>
+  </r>
+  <r>
+    <n v="955"/>
+    <x v="44"/>
+  </r>
+  <r>
+    <n v="956"/>
+    <x v="619"/>
+  </r>
+  <r>
+    <n v="957"/>
+    <x v="504"/>
+  </r>
+  <r>
+    <n v="958"/>
+    <x v="620"/>
+  </r>
+  <r>
+    <n v="959"/>
+    <x v="402"/>
+  </r>
+  <r>
+    <n v="960"/>
+    <x v="534"/>
+  </r>
+  <r>
+    <n v="961"/>
+    <x v="621"/>
+  </r>
+  <r>
+    <n v="962"/>
+    <x v="539"/>
+  </r>
+  <r>
+    <n v="963"/>
+    <x v="35"/>
+  </r>
+  <r>
+    <n v="964"/>
+    <x v="622"/>
+  </r>
+  <r>
+    <n v="965"/>
+    <x v="30"/>
+  </r>
+  <r>
+    <n v="966"/>
+    <x v="49"/>
+  </r>
+  <r>
+    <n v="967"/>
+    <x v="36"/>
+  </r>
+  <r>
+    <n v="968"/>
+    <x v="362"/>
+  </r>
+  <r>
+    <n v="969"/>
+    <x v="623"/>
+  </r>
+  <r>
+    <n v="970"/>
+    <x v="624"/>
+  </r>
+  <r>
+    <n v="971"/>
+    <x v="29"/>
+  </r>
+  <r>
+    <n v="972"/>
+    <x v="485"/>
+  </r>
+  <r>
+    <n v="973"/>
+    <x v="625"/>
+  </r>
+  <r>
+    <n v="974"/>
+    <x v="166"/>
+  </r>
+  <r>
+    <n v="975"/>
+    <x v="626"/>
+  </r>
+  <r>
+    <n v="976"/>
+    <x v="266"/>
+  </r>
+  <r>
+    <n v="977"/>
+    <x v="627"/>
+  </r>
+  <r>
+    <n v="978"/>
+    <x v="628"/>
+  </r>
+  <r>
+    <n v="979"/>
+    <x v="297"/>
+  </r>
+  <r>
+    <n v="980"/>
+    <x v="551"/>
+  </r>
+  <r>
+    <n v="981"/>
+    <x v="629"/>
+  </r>
+  <r>
+    <n v="982"/>
+    <x v="32"/>
+  </r>
+  <r>
+    <n v="983"/>
+    <x v="630"/>
+  </r>
+  <r>
+    <n v="984"/>
+    <x v="278"/>
+  </r>
+  <r>
+    <n v="985"/>
+    <x v="631"/>
+  </r>
+  <r>
+    <n v="986"/>
+    <x v="632"/>
+  </r>
+  <r>
+    <n v="987"/>
+    <x v="304"/>
+  </r>
+  <r>
+    <n v="988"/>
+    <x v="16"/>
+  </r>
+  <r>
+    <n v="989"/>
+    <x v="550"/>
+  </r>
+  <r>
+    <n v="990"/>
+    <x v="199"/>
+  </r>
+  <r>
+    <n v="991"/>
+    <x v="383"/>
+  </r>
+  <r>
+    <n v="992"/>
+    <x v="142"/>
+  </r>
+  <r>
+    <n v="993"/>
+    <x v="320"/>
+  </r>
+  <r>
+    <n v="994"/>
+    <x v="602"/>
+  </r>
+  <r>
+    <n v="995"/>
+    <x v="633"/>
+  </r>
+  <r>
+    <n v="996"/>
+    <x v="634"/>
+  </r>
+  <r>
+    <n v="997"/>
+    <x v="312"/>
+  </r>
+  <r>
+    <n v="998"/>
+    <x v="19"/>
+  </r>
+  <r>
+    <n v="999"/>
+    <x v="250"/>
+  </r>
+  <r>
+    <n v="1000"/>
+    <x v="635"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A3:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="2">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="11">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of  Favorite Number " fld="1" subtotal="count" showDataAs="percentOfTotal" baseField="1" baseItem="4" numFmtId="164"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -866,9 +6714,128 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:B14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.1018981018981019</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3">
+        <v>9.8901098901098897E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3">
+        <v>9.8901098901098897E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.10989010989010989</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.1028971028971029</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="3">
+        <v>9.8901098901098897E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.1008991008991009</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="3">
+        <v>9.2907092907092911E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="3">
+        <v>9.8901098901098897E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="3">
+        <v>9.5904095904095904E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B1002"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
